--- a/myfile3.csv.xlsx
+++ b/myfile3.csv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmavungu\Victoria Python Programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmavungu\Desktop\Victoria Python Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,58 +365,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
